--- a/outputs-HGR-r202/g__Ruminococcus_E.xlsx
+++ b/outputs-HGR-r202/g__Ruminococcus_E.xlsx
@@ -558,7 +558,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955(reject)</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp003526955(reject)</t>
+          <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Ruminococcus_E.xlsx
+++ b/outputs-HGR-r202/g__Ruminococcus_E.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,11 @@
           <t>s__Ruminococcus_E sp900314705</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900314705</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -546,6 +556,11 @@
           <t>s__Ruminococcus_E bromii</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E bromii(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -579,6 +594,11 @@
           <t>s__Ruminococcus_E sp900314705</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900314705</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -612,6 +632,11 @@
           <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp003526955</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -645,6 +670,11 @@
           <t>s__Ruminococcus_E sp900314705</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900314705</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -678,6 +708,11 @@
           <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp003526955</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -711,6 +746,11 @@
           <t>s__Ruminococcus_E sp900314705</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900314705</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -744,6 +784,11 @@
           <t>s__Ruminococcus_E sp900314705</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900314705</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -777,6 +822,11 @@
           <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp003526955</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -810,6 +860,11 @@
           <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp003526955</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -843,6 +898,11 @@
           <t>s__Ruminococcus_E sp003526955</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp003526955</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -872,6 +932,11 @@
         <v>0.5796977573432412</v>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp003526955</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>s__Ruminococcus_E sp003526955</t>
         </is>

--- a/outputs-HGR-r202/g__Ruminococcus_E.xlsx
+++ b/outputs-HGR-r202/g__Ruminococcus_E.xlsx
@@ -748,7 +748,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E bromii</t>
+          <t>s__Ruminococcus_E bromii(reject)</t>
         </is>
       </c>
     </row>
